--- a/src/test/java/gfl/testData/ServiceOrder.xlsx
+++ b/src/test/java/gfl/testData/ServiceOrder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>TC0042</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>WGWHPQMLTCXL</t>
+  </si>
+  <si>
+    <t>CHVAOPODAEDZ</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1048541" spans="1:1" x14ac:dyDescent="0.25">
